--- a/lin_R1_by_R2 (3 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (3 by 1)1000.xlsx
@@ -15,7 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>freq_to_store</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,6 +372,158 @@
         <v>-0.12211044617101996</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.202983522642777</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.514466526624656</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.906600395679427</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.400267688257645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.0217579878559895</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.8041679192039157</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.789163664217949</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.029199838125245</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.59031288900115</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.555637779432349</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.029835226427771</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.144665266246559</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.066003956794273</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.00267688257645</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30.217579878559892</v>
+      </c>
+      <c r="P3" t="n">
+        <v>38.041679192039155</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>47.8916366421795</v>
+      </c>
+      <c r="R3" t="n">
+        <v>60.29199838125245</v>
+      </c>
+      <c r="S3" t="n">
+        <v>75.9031288900115</v>
+      </c>
+      <c r="T3" t="n">
+        <v>95.55637779432348</v>
+      </c>
+      <c r="U3" t="n">
+        <v>120.2983522642777</v>
+      </c>
+      <c r="V3" t="n">
+        <v>151.4466526624656</v>
+      </c>
+      <c r="W3" t="n">
+        <v>190.6600395679427</v>
+      </c>
+      <c r="X3" t="n">
+        <v>240.0267688257645</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>302.17579878559894</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>380.4167919203916</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>478.916366421795</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>602.9199838125245</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>759.031288900115</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>955.5637779432348</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1202.983522642777</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1514.466526624656</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1906.600395679427</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2400.2676882576447</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3021.7579878559895</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3804.1679192039155</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4789.163664217949</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6029.199838125245</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7590.31288900115</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9555.637779432349</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12029.835226427771</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15144.66526624656</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19066.00395679427</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24002.67688257645</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>30217.579878559893</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>38041.679192039155</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>47891.636642179496</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>60291.99838125245</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>75903.1288900115</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>95556.37779432347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (3 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (3 by 1)1000.xlsx
@@ -841,6 +841,158 @@
         <v>-0.12212047661561988</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.202983522642777</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.514466526624656</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.906600395679427</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.400267688257645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.0217579878559895</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.8041679192039157</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.789163664217949</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.029199838125245</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.59031288900115</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.555637779432349</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.029835226427771</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.144665266246559</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.066003956794273</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.00267688257645</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30.217579878559892</v>
+      </c>
+      <c r="P3" t="n">
+        <v>38.041679192039155</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>47.8916366421795</v>
+      </c>
+      <c r="R3" t="n">
+        <v>60.29199838125245</v>
+      </c>
+      <c r="S3" t="n">
+        <v>75.9031288900115</v>
+      </c>
+      <c r="T3" t="n">
+        <v>95.55637779432348</v>
+      </c>
+      <c r="U3" t="n">
+        <v>120.2983522642777</v>
+      </c>
+      <c r="V3" t="n">
+        <v>151.4466526624656</v>
+      </c>
+      <c r="W3" t="n">
+        <v>190.6600395679427</v>
+      </c>
+      <c r="X3" t="n">
+        <v>240.0267688257645</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>302.17579878559894</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>380.4167919203916</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>478.916366421795</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>602.9199838125245</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>759.031288900115</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>955.5637779432348</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1202.983522642777</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1514.466526624656</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1906.600395679427</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2400.2676882576447</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3021.7579878559895</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3804.1679192039155</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4789.163664217949</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6029.199838125245</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7590.31288900115</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9555.637779432349</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12029.835226427771</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15144.66526624656</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19066.00395679427</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24002.67688257645</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>30217.579878559893</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>38041.679192039155</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>47891.636642179496</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>60291.99838125245</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>75903.1288900115</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>95556.37779432347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1156,6 +1308,158 @@
       </c>
       <c r="AX2" t="n">
         <v>-0.12212191086700304</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.202983522642777</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.514466526624656</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.906600395679427</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.400267688257645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.0217579878559895</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.8041679192039157</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.789163664217949</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.029199838125245</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.59031288900115</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.555637779432349</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.029835226427771</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.144665266246559</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.066003956794273</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.00267688257645</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30.217579878559892</v>
+      </c>
+      <c r="P3" t="n">
+        <v>38.041679192039155</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>47.8916366421795</v>
+      </c>
+      <c r="R3" t="n">
+        <v>60.29199838125245</v>
+      </c>
+      <c r="S3" t="n">
+        <v>75.9031288900115</v>
+      </c>
+      <c r="T3" t="n">
+        <v>95.55637779432348</v>
+      </c>
+      <c r="U3" t="n">
+        <v>120.2983522642777</v>
+      </c>
+      <c r="V3" t="n">
+        <v>151.4466526624656</v>
+      </c>
+      <c r="W3" t="n">
+        <v>190.6600395679427</v>
+      </c>
+      <c r="X3" t="n">
+        <v>240.0267688257645</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>302.17579878559894</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>380.4167919203916</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>478.916366421795</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>602.9199838125245</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>759.031288900115</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>955.5637779432348</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1202.983522642777</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1514.466526624656</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1906.600395679427</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2400.2676882576447</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3021.7579878559895</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3804.1679192039155</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4789.163664217949</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6029.199838125245</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7590.31288900115</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9555.637779432349</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12029.835226427771</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15144.66526624656</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19066.00395679427</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24002.67688257645</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>30217.579878559893</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>38041.679192039155</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>47891.636642179496</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>60291.99838125245</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>75903.1288900115</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>95556.37779432347</v>
       </c>
     </row>
   </sheetData>
@@ -1475,6 +1779,158 @@
         <v>-0.12211043593804437</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.202983522642777</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.514466526624656</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.906600395679427</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.400267688257645</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.0217579878559895</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.8041679192039157</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.789163664217949</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.029199838125245</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.59031288900115</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.555637779432349</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.029835226427771</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.144665266246559</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.066003956794273</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.00267688257645</v>
+      </c>
+      <c r="O3" t="n">
+        <v>30.217579878559892</v>
+      </c>
+      <c r="P3" t="n">
+        <v>38.041679192039155</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>47.8916366421795</v>
+      </c>
+      <c r="R3" t="n">
+        <v>60.29199838125245</v>
+      </c>
+      <c r="S3" t="n">
+        <v>75.9031288900115</v>
+      </c>
+      <c r="T3" t="n">
+        <v>95.55637779432348</v>
+      </c>
+      <c r="U3" t="n">
+        <v>120.2983522642777</v>
+      </c>
+      <c r="V3" t="n">
+        <v>151.4466526624656</v>
+      </c>
+      <c r="W3" t="n">
+        <v>190.6600395679427</v>
+      </c>
+      <c r="X3" t="n">
+        <v>240.0267688257645</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>302.17579878559894</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>380.4167919203916</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>478.916366421795</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>602.9199838125245</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>759.031288900115</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>955.5637779432348</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1202.983522642777</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1514.466526624656</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1906.600395679427</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2400.2676882576447</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3021.7579878559895</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3804.1679192039155</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4789.163664217949</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6029.199838125245</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7590.31288900115</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9555.637779432349</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12029.835226427771</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15144.66526624656</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19066.00395679427</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24002.67688257645</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>30217.579878559893</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>38041.679192039155</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>47891.636642179496</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>60291.99838125245</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>75903.1288900115</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>95556.37779432347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (3 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (3 by 1)1000.xlsx
@@ -70,458 +70,521 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.6666655726475785</v>
+        <v>1.6666666343605856</v>
       </c>
       <c r="B1" t="n">
-        <v>1.6666649327643075</v>
+        <v>1.6666666154649796</v>
       </c>
       <c r="C1" t="n">
-        <v>1.6666639186192487</v>
+        <v>1.6666665855174638</v>
       </c>
       <c r="D1" t="n">
-        <v>1.6666623113116215</v>
+        <v>1.6666665380538535</v>
       </c>
       <c r="E1" t="n">
-        <v>1.6666597639106833</v>
+        <v>1.6666664628291088</v>
       </c>
       <c r="F1" t="n">
-        <v>1.6666557265773432</v>
+        <v>1.6666663436059452</v>
       </c>
       <c r="G1" t="n">
-        <v>1.6666493278981755</v>
+        <v>1.6666661546500199</v>
       </c>
       <c r="H1" t="n">
-        <v>1.6666391868332657</v>
+        <v>1.6666658551751978</v>
       </c>
       <c r="I1" t="n">
-        <v>1.6666231147257515</v>
+        <v>1.6666653805399374</v>
       </c>
       <c r="J1" t="n">
-        <v>1.666597643149701</v>
+        <v>1.6666646282946145</v>
       </c>
       <c r="K1" t="n">
-        <v>1.6665572759282228</v>
+        <v>1.6666634360683088</v>
       </c>
       <c r="L1" t="n">
-        <v>1.666493304487724</v>
+        <v>1.6666615465224432</v>
       </c>
       <c r="M1" t="n">
-        <v>1.6663919323939187</v>
+        <v>1.6666585518078547</v>
       </c>
       <c r="N1" t="n">
-        <v>1.6662313081449336</v>
+        <v>1.6666538055397304</v>
       </c>
       <c r="O1" t="n">
-        <v>1.6659768355197029</v>
+        <v>1.6666462832987017</v>
       </c>
       <c r="P1" t="n">
-        <v>1.6655737737107579</v>
+        <v>1.6666343615686605</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.664935591294009</v>
+        <v>1.666615467448846</v>
       </c>
       <c r="R1" t="n">
-        <v>1.6639257134422483</v>
+        <v>1.666585523665846</v>
       </c>
       <c r="S1" t="n">
-        <v>1.662329104125842</v>
+        <v>1.666538069431262</v>
       </c>
       <c r="T1" t="n">
-        <v>1.6598084951631737</v>
+        <v>1.6664628682359355</v>
       </c>
       <c r="U1" t="n">
-        <v>1.6558381401478182</v>
+        <v>1.6663437042167817</v>
       </c>
       <c r="V1" t="n">
-        <v>1.649606442752774</v>
+        <v>1.66615489682203</v>
       </c>
       <c r="W1" t="n">
-        <v>1.6398798871810005</v>
+        <v>1.6658557949593313</v>
       </c>
       <c r="X1" t="n">
-        <v>1.624829884635772</v>
+        <v>1.6653820960016288</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.601852883610407</v>
+        <v>1.66463220046199</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.5674803469328358</v>
+        <v>1.6634458681915758</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.5175901790277064</v>
+        <v>1.6615710943270399</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.448246109462351</v>
+        <v>1.6586133540578922</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.357399388574615</v>
+        <v>1.653959442928401</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.247047007016927</v>
+        <v>1.6466671555069854</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.1243389520453448</v>
+        <v>1.6353150990773162</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.9998952539764632</v>
+        <v>1.6178213086856585</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.8836515360445837</v>
+        <v>1.591279006990842</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.7811773208911575</v>
+        <v>1.551941328131954</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6930354564108842</v>
+        <v>1.4956132358391045</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.6168312023932168</v>
+        <v>1.4187853076300532</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.5497697846068746</v>
+        <v>1.320595690869903</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.49001859614140647</v>
+        <v>1.2048415760909426</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.43665697624870664</v>
+        <v>1.0802494967965661</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.38908807503145043</v>
+        <v>0.957724895559931</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.34672153699062114</v>
+        <v>0.84596177825289</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.3089815065474265</v>
+        <v>0.7486688904658761</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.2753559902873982</v>
+        <v>0.6650608213156269</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.24539443332585656</v>
+        <v>0.592349969192926</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.21869627073964487</v>
+        <v>0.5280072686502562</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.19490504591415894</v>
+        <v>0.47057719081862</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.1737035587550932</v>
+        <v>0.41931596495652596</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.15480943310190917</v>
+        <v>0.3736427893872978</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.13797122774626228</v>
+        <v>0.33296425225362003</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.12296500257059477</v>
+        <v>0.2967244927961025</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.26443471607425545</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.23566284653192593</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.21002437647847813</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.1871771804779394</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.16681676697870731</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.1486720453897951</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>0.1325016053418537</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-400.304266922124</v>
+        <v>-2329.4830443569285</v>
       </c>
       <c r="B2" t="n">
-        <v>-317.9735085771556</v>
+        <v>-1850.3742449846034</v>
       </c>
       <c r="C2" t="n">
-        <v>-252.57599905920807</v>
+        <v>-1469.8046215815245</v>
       </c>
       <c r="D2" t="n">
-        <v>-200.62908251225247</v>
+        <v>-1167.5074539473208</v>
       </c>
       <c r="E2" t="n">
-        <v>-159.3663962028319</v>
+        <v>-927.3843155732619</v>
       </c>
       <c r="F2" t="n">
-        <v>-126.59055161594836</v>
+        <v>-736.6477737274556</v>
       </c>
       <c r="G2" t="n">
-        <v>-100.55611550189757</v>
+        <v>-585.1404120322547</v>
       </c>
       <c r="H2" t="n">
-        <v>-79.87665918713041</v>
+        <v>-464.79391100292213</v>
       </c>
       <c r="I2" t="n">
-        <v>-63.450926184092275</v>
+        <v>-369.1993806137533</v>
       </c>
       <c r="J2" t="n">
-        <v>-50.404186252234304</v>
+        <v>-293.2660635339948</v>
       </c>
       <c r="K2" t="n">
-        <v>-40.04165279251391</v>
+        <v>-232.95023373628604</v>
       </c>
       <c r="L2" t="n">
-        <v>-31.81148286666677</v>
+        <v>-185.03985333987242</v>
       </c>
       <c r="M2" t="n">
-        <v>-25.275389427234387</v>
+        <v>-146.9835198800837</v>
       </c>
       <c r="N2" t="n">
-        <v>-20.085300692424237</v>
+        <v>-116.75459482212533</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.9648235729543</v>
+        <v>-92.74327766647436</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.694523773340926</v>
+        <v>-73.67087819722109</v>
       </c>
       <c r="Q2" t="n">
-        <v>-10.100238208463816</v>
+        <v>-58.52172155554585</v>
       </c>
       <c r="R2" t="n">
-        <v>-8.043796398388684</v>
+        <v>-46.48905983034143</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.415654893225496</v>
+        <v>-36.93210975129052</v>
       </c>
       <c r="T2" t="n">
-        <v>-5.129048923389063</v>
+        <v>-29.341928565636294</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.1153429965715755</v>
+        <v>-23.314310826273857</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.3203200452199555</v>
+        <v>-18.52826266986094</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.701188484385113</v>
+        <v>-14.72890710968382</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.224109204635854</v>
+        <v>-11.71390968569962</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.8620543072621836</v>
+        <v>-9.322700989633443</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.5928237854293366</v>
+        <v>-7.4279209445375605</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.3971152955382118</v>
+        <v>-5.928626901531129</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.2567587148311763</v>
+        <v>-4.744899373872324</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.1536492671979504</v>
+        <v>-3.8135495969237394</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.0702815387172842</v>
+        <v>-3.0846845045129863</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.9922977613378955</v>
+        <v>-2.5189183043693926</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.9116518362202646</v>
+        <v>-2.085037117821421</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.8275648682125959</v>
+        <v>-1.7579313745706626</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.7439896756538543</v>
+        <v>-1.516636191861037</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.6655360294963242</v>
+        <v>-1.3424286599503563</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5947487744381168</v>
+        <v>-1.2172211813672646</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.5318006862262588</v>
+        <v>-1.122951009901814</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.47568144975605353</v>
+        <v>-1.0428443101730844</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.42537111896012963</v>
+        <v>-0.9644530962865531</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.380206560765557</v>
+        <v>-0.8823611147484143</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.3397118764825982</v>
+        <v>-0.7978866778021526</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.3034431884058711</v>
+        <v>-0.7156583798349612</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.2709781972849421</v>
+        <v>-0.6397448544848365</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.24193212083336746</v>
+        <v>-0.5717835971864014</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.21595664126623912</v>
+        <v>-0.511367783856058</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.19273631981012315</v>
+        <v>-0.45738665295574144</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.1719861097089089</v>
+        <v>-0.40894474317839824</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.15344889595454322</v>
+        <v>-0.3654718509808266</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.13689310645669073</v>
+        <v>-0.32651173769807085</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.12211044617101996</v>
+        <v>-0.2916255763872589</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.26040350453242955</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.23247405761222764</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.20750078110833753</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.1851791905228369</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.16523433056652595</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.14741832549867348</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.1315080317526776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.202983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.514466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.906600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.400267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0217579878559895</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8041679192039157</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.789163664217949</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.029199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>7.59031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>9.555637779432349</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>12.029835226427771</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>15.144665266246559</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>19.066003956794273</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>24.00267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>30.217579878559892</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>38.041679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>47.8916366421795</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>60.29199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>75.9031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>95.55637779432348</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>120.2983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>151.4466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>190.6600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>240.0267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>302.17579878559894</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>380.4167919203916</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.916366421795</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.9199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>955.5637779432348</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1202.983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1514.466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1906.600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2400.2676882576447</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3021.7579878559895</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3804.1679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4789.163664217949</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6029.199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>7590.31288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>9555.637779432349</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>12029.835226427771</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>15144.66526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19066.00395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>24002.67688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>30217.579878559893</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>38041.679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>47891.636642179496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>60291.99838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>75903.1288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>95556.37779432347</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -539,458 +602,521 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.6666694730449128</v>
+        <v>1.6666667495442566</v>
       </c>
       <c r="B1" t="n">
-        <v>1.6666711142791475</v>
+        <v>1.666666798018623</v>
       </c>
       <c r="C1" t="n">
-        <v>1.666673715161862</v>
+        <v>1.6666668748450557</v>
       </c>
       <c r="D1" t="n">
-        <v>1.6666778365341137</v>
+        <v>1.6666669966060927</v>
       </c>
       <c r="E1" t="n">
-        <v>1.6666843665878566</v>
+        <v>1.66666718958269</v>
       </c>
       <c r="F1" t="n">
-        <v>1.6666947113023616</v>
+        <v>1.6666674954258622</v>
       </c>
       <c r="G1" t="n">
-        <v>1.6667110947131138</v>
+        <v>1.6666679801442679</v>
       </c>
       <c r="H1" t="n">
-        <v>1.6667370309154457</v>
+        <v>1.6666687483451568</v>
       </c>
       <c r="I1" t="n">
-        <v>1.6667780624037698</v>
+        <v>1.6666699657961785</v>
       </c>
       <c r="J1" t="n">
-        <v>1.6668429059486594</v>
+        <v>1.666671895161907</v>
       </c>
       <c r="K1" t="n">
-        <v>1.6669452081915512</v>
+        <v>1.6666749525883424</v>
       </c>
       <c r="L1" t="n">
-        <v>1.6671061783559733</v>
+        <v>1.666679797247543</v>
       </c>
       <c r="M1" t="n">
-        <v>1.6673583935215295</v>
+        <v>1.6666874729155199</v>
       </c>
       <c r="N1" t="n">
-        <v>1.667750941001195</v>
+        <v>1.6666996315030214</v>
       </c>
       <c r="O1" t="n">
-        <v>1.6683554661158775</v>
+        <v>1.666718885183879</v>
       </c>
       <c r="P1" t="n">
-        <v>1.6692709582359575</v>
+        <v>1.6667493591100504</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.670621002315146</v>
+        <v>1.666797553974194</v>
       </c>
       <c r="R1" t="n">
-        <v>1.6725292407035848</v>
+        <v>1.6668736795741064</v>
       </c>
       <c r="S1" t="n">
-        <v>1.6750473708955</v>
+        <v>1.6669936851323373</v>
       </c>
       <c r="T1" t="n">
-        <v>1.6780037538008605</v>
+        <v>1.6671822716817069</v>
       </c>
       <c r="U1" t="n">
-        <v>1.680762794474235</v>
+        <v>1.6674771644516777</v>
       </c>
       <c r="V1" t="n">
-        <v>1.6819562360513889</v>
+        <v>1.6679346779246988</v>
       </c>
       <c r="W1" t="n">
-        <v>1.679321866243335</v>
+        <v>1.6686357123057105</v>
       </c>
       <c r="X1" t="n">
-        <v>1.6697366210962024</v>
+        <v>1.6696889224987714</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.6493561785290474</v>
+        <v>1.6712224840073011</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.6137470100951956</v>
+        <v>1.6733463986712247</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.558203125988406</v>
+        <v>1.676056013342823</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.478798944412763</v>
+        <v>1.6790478059255023</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.3746021490890663</v>
+        <v>1.6814571076372287</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.250342754356254</v>
+        <v>1.6816103218560758</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.1170280876046583</v>
+        <v>1.6769300416072481</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.9881239034872501</v>
+        <v>1.6640236235142802</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.8732287870882209</v>
+        <v>1.6388237029747013</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.774795065219858</v>
+        <v>1.5967409052739918</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6901529246431584</v>
+        <v>1.5331668865837746</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.6156317989156341</v>
+        <v>1.4449193166171288</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.5489943552410174</v>
+        <v>1.3327876073030256</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.4893498880756199</v>
+        <v>1.2038398457308386</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.43614583451043826</v>
+        <v>1.0706105314792296</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.3887361290229258</v>
+        <v>0.945888567694024</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.34647842220388264</v>
+        <v>0.8368444025901102</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.30881066512450916</v>
+        <v>0.7436931508955096</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.2752359153689843</v>
+        <v>0.6629741480578265</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.24531004252943925</v>
+        <v>0.5913878078033348</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.21863690231405786</v>
+        <v>0.5272721594576388</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.19486325077871555</v>
+        <v>0.46995706906375717</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.17367411656233928</v>
+        <v>0.41886534117746826</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.1547886811903988</v>
+        <v>0.3733346825519078</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.13795659379677908</v>
+        <v>0.3327496265661382</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.12295467838633972</v>
+        <v>0.296573527103527</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.2643286443316894</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.23558827069571686</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.20997189877673442</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.18714022791198617</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.16679073075328107</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.14865369079975999</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>0.13248865987228955</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-400.3038545657106</v>
+        <v>-2329.4829734918367</v>
       </c>
       <c r="B2" t="n">
-        <v>-317.9729894728935</v>
+        <v>-1850.3741557708483</v>
       </c>
       <c r="C2" t="n">
-        <v>-252.57534558896575</v>
+        <v>-1469.8045092682812</v>
       </c>
       <c r="D2" t="n">
-        <v>-200.62825992835175</v>
+        <v>-1167.507312553763</v>
       </c>
       <c r="E2" t="n">
-        <v>-159.36536080339883</v>
+        <v>-927.384137570194</v>
       </c>
       <c r="F2" t="n">
-        <v>-126.58924846905163</v>
+        <v>-736.6475496366158</v>
       </c>
       <c r="G2" t="n">
-        <v>-100.55447562270507</v>
+        <v>-585.1401299220853</v>
       </c>
       <c r="H2" t="n">
-        <v>-79.87459606831607</v>
+        <v>-464.7935558542109</v>
       </c>
       <c r="I2" t="n">
-        <v>-63.4483315950479</v>
+        <v>-369.1989335218825</v>
       </c>
       <c r="J2" t="n">
-        <v>-50.40092528180048</v>
+        <v>-293.2655007063432</v>
       </c>
       <c r="K2" t="n">
-        <v>-40.03755826165336</v>
+        <v>-232.94952523344884</v>
       </c>
       <c r="L2" t="n">
-        <v>-31.806349575391184</v>
+        <v>-185.03896149776023</v>
       </c>
       <c r="M2" t="n">
-        <v>-25.26896939646348</v>
+        <v>-146.98239733704008</v>
       </c>
       <c r="N2" t="n">
-        <v>-20.077301912164856</v>
+        <v>-116.75318206226859</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.954917219040153</v>
+        <v>-92.74149998081515</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.682368890980626</v>
+        <v>-73.66864196506305</v>
       </c>
       <c r="Q2" t="n">
-        <v>-10.085538423907119</v>
+        <v>-58.518909775679525</v>
       </c>
       <c r="R2" t="n">
-        <v>-8.026407997477603</v>
+        <v>-46.48552691591188</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.395761757284506</v>
+        <v>-36.92767580548413</v>
       </c>
       <c r="T2" t="n">
-        <v>-5.107391930320057</v>
+        <v>-29.336373794175746</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.093427495006197</v>
+        <v>-23.307371627550946</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.3004532703507885</v>
+        <v>-18.519632622992667</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.686213889953684</v>
+        <v>-14.718249041093658</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.2168698080826825</v>
+        <v>-11.700889637629928</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.8647932082566503</v>
+        <v>-9.307060666072495</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.6066911569742806</v>
+        <v>-7.4096082485332</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.4217459639856491</v>
+        <v>-5.907993934350524</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.2898212745613418</v>
+        <v>-4.722937036492305</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.190559296799617</v>
+        <v>-3.7920544451367735</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.1047788182972262</v>
+        <v>-3.0661992728997944</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.0185507482929395</v>
+        <v>-2.5063559207665222</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.9270806207092258</v>
+        <v>-2.0810944040474983</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.8339310487771747</v>
+        <v>-1.76451734296837</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.7455055181527862</v>
+        <v>-1.534417379505065</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.6658406257844074</v>
+        <v>-1.3704011540401955</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5953562626971551</v>
+        <v>-1.2522697349192702</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.5326373809252799</v>
+        <v>-1.1597647683266936</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.4763687633393059</v>
+        <v>-1.074997485087114</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.4258289383629142</v>
+        <v>-0.9869668024751884</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.3805174651154439</v>
+        <v>-0.8942150475290465</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.33993375057278</v>
+        <v>-0.8020404007300811</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.30360128109079226</v>
+        <v>-0.7164337994622832</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.27109023029256457</v>
+        <v>-0.6400918413440312</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.24201152583779742</v>
+        <v>-0.5725199449236975</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.21601291140636927</v>
+        <v>-0.5121823815413477</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.19277618566008098</v>
+        <v>-0.4579880302771663</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.17201434892347447</v>
+        <v>-0.40934107201498643</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.15346889679847647</v>
+        <v>-0.3657473668437366</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.13690727094650051</v>
+        <v>-0.3267089455529088</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.12212047661561988</v>
+        <v>-0.29176567123786395</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.26050277408772493</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.23254441681389312</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.20755063586861486</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.18521450904356004</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.16525934742614323</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.14743604339199673</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.13152057910223008</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.202983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.514466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.906600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.400267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0217579878559895</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8041679192039157</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.789163664217949</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.029199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>7.59031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>9.555637779432349</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>12.029835226427771</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>15.144665266246559</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>19.066003956794273</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>24.00267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>30.217579878559892</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>38.041679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>47.8916366421795</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>60.29199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>75.9031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>95.55637779432348</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>120.2983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>151.4466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>190.6600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>240.0267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>302.17579878559894</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>380.4167919203916</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.916366421795</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.9199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>955.5637779432348</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1202.983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1514.466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1906.600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2400.2676882576447</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3021.7579878559895</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3804.1679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4789.163664217949</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6029.199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>7590.31288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>9555.637779432349</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>12029.835226427771</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>15144.66526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19066.00395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>24002.67688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>30217.579878559893</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>38041.679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>47891.636642179496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>60291.99838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>75903.1288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>95556.37779432347</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1008,458 +1134,521 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.7555517057467533</v>
+        <v>1.7555554418674602</v>
       </c>
       <c r="B1" t="n">
-        <v>1.7555494541627648</v>
+        <v>1.755555375372192</v>
       </c>
       <c r="C1" t="n">
-        <v>1.755545885858758</v>
+        <v>1.7555552699844823</v>
       </c>
       <c r="D1" t="n">
-        <v>1.7555402310208377</v>
+        <v>1.7555551029566925</v>
       </c>
       <c r="E1" t="n">
-        <v>1.7555312700698522</v>
+        <v>1.7555548382366746</v>
       </c>
       <c r="F1" t="n">
-        <v>1.7555170713423602</v>
+        <v>1.755554418686708</v>
       </c>
       <c r="G1" t="n">
-        <v>1.755494576468022</v>
+        <v>1.755553753752327</v>
       </c>
       <c r="H1" t="n">
-        <v>1.7554589460564447</v>
+        <v>1.7555526999212028</v>
       </c>
       <c r="I1" t="n">
-        <v>1.7554025297365028</v>
+        <v>1.755551029758775</v>
       </c>
       <c r="J1" t="n">
-        <v>1.7553132513981067</v>
+        <v>1.7555483828486347</v>
       </c>
       <c r="K1" t="n">
-        <v>1.7551720938198154</v>
+        <v>1.755544188077456</v>
       </c>
       <c r="L1" t="n">
-        <v>1.7549492205902917</v>
+        <v>1.755537540563294</v>
       </c>
       <c r="M1" t="n">
-        <v>1.7545980960015515</v>
+        <v>1.7555270068470332</v>
       </c>
       <c r="N1" t="n">
-        <v>1.7540468097892277</v>
+        <v>1.755510316761277</v>
       </c>
       <c r="O1" t="n">
-        <v>1.7531858512151335</v>
+        <v>1.755483876629204</v>
       </c>
       <c r="P1" t="n">
-        <v>1.7518522058725619</v>
+        <v>1.755442001628908</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.749811603055526</v>
+        <v>1.7553757089069895</v>
       </c>
       <c r="R1" t="n">
-        <v>1.7467447730977401</v>
+        <v>1.7552708290750358</v>
       </c>
       <c r="S1" t="n">
-        <v>1.7422484621491274</v>
+        <v>1.755105073462283</v>
       </c>
       <c r="T1" t="n">
-        <v>1.735859104131276</v>
+        <v>1.7548435349434564</v>
       </c>
       <c r="U1" t="n">
-        <v>1.7270759811206564</v>
+        <v>1.7544319210565549</v>
       </c>
       <c r="V1" t="n">
-        <v>1.715291801524755</v>
+        <v>1.7537867034976693</v>
       </c>
       <c r="W1" t="n">
-        <v>1.6995072991968025</v>
+        <v>1.7527815516603842</v>
       </c>
       <c r="X1" t="n">
-        <v>1.6778644978230546</v>
+        <v>1.7512304124800095</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.6473111341270943</v>
+        <v>1.7488702288224194</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.603743674455542</v>
+        <v>1.7453509858685265</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.5427730725661999</v>
+        <v>1.7402445288823778</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.4611553010673446</v>
+        <v>1.7330736133900482</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.358701452060403</v>
+        <v>1.7233169384926657</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.239770661015069</v>
+        <v>1.7102749876623218</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.112964324132432</v>
+        <v>1.6927020227342828</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.9885454053973107</v>
+        <v>1.6683397048712805</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.8748230488177899</v>
+        <v>1.633719472979813</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.7755699641207112</v>
+        <v>1.584516616889004</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6900370496042744</v>
+        <v>1.5165477099833538</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.6153017425268179</v>
+        <v>1.4274179292458506</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.5488084334648835</v>
+        <v>1.3184306458105308</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.4892706050256087</v>
+        <v>1.1955944051097234</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.43609047190085015</v>
+        <v>1.0684822132649459</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.38869225768524085</v>
+        <v>0.9470738806485133</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.3464473594419043</v>
+        <v>0.838266591594765</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.3087887284827089</v>
+        <v>0.7440932364364313</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.2752203056851115</v>
+        <v>0.6627094739693054</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.24529895582530573</v>
+        <v>0.591094808089539</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.21862903015608148</v>
+        <v>0.5271366801316479</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.1948576629326959</v>
+        <v>0.4698912954239421</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.1736701513216087</v>
+        <v>0.41881357467483993</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.15478586810465036</v>
+        <v>0.3732955635117069</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.13795459854886016</v>
+        <v>0.33272220079700926</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.12295326349820646</v>
+        <v>0.296554057849669</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.26431480137842106</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.23557844019838498</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.20996491935662065</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.1871352742783353</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.1667872158911031</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.14865119743718933</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>0.13248689152723128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-400.30471241955973</v>
+        <v>-2329.483120915514</v>
       </c>
       <c r="B2" t="n">
-        <v>-317.97406941024036</v>
+        <v>-1850.374341366076</v>
       </c>
       <c r="C2" t="n">
-        <v>-252.57670507638773</v>
+        <v>-1469.8047429184583</v>
       </c>
       <c r="D2" t="n">
-        <v>-200.6299712756853</v>
+        <v>-1167.5076067011678</v>
       </c>
       <c r="E2" t="n">
-        <v>-159.36751497093803</v>
+        <v>-927.3845078783587</v>
       </c>
       <c r="F2" t="n">
-        <v>-126.59195982465945</v>
+        <v>-736.6480158240256</v>
       </c>
       <c r="G2" t="n">
-        <v>-100.55788785922553</v>
+        <v>-585.1407168113783</v>
       </c>
       <c r="H2" t="n">
-        <v>-79.87888951102812</v>
+        <v>-464.79429469231616</v>
       </c>
       <c r="I2" t="n">
-        <v>-63.45373211891041</v>
+        <v>-369.1998636405257</v>
       </c>
       <c r="J2" t="n">
-        <v>-50.4077149783927</v>
+        <v>-293.2666716096075</v>
       </c>
       <c r="K2" t="n">
-        <v>-40.046087764997985</v>
+        <v>-232.95099922009018</v>
       </c>
       <c r="L2" t="n">
-        <v>-31.81705141807229</v>
+        <v>-185.0408169510037</v>
       </c>
       <c r="M2" t="n">
-        <v>-25.28237063524683</v>
+        <v>-146.9847328432567</v>
       </c>
       <c r="N2" t="n">
-        <v>-20.09403204430706</v>
+        <v>-116.75612155038823</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.975703375761578</v>
+        <v>-92.7451991014869</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.708003686921382</v>
+        <v>-73.6732959406284</v>
       </c>
       <c r="Q2" t="n">
-        <v>-10.11679693809203</v>
+        <v>-58.52476292365605</v>
       </c>
       <c r="R2" t="n">
-        <v>-8.063883539968566</v>
+        <v>-46.49288392800503</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.439599568455596</v>
+        <v>-36.936914548670245</v>
       </c>
       <c r="T2" t="n">
-        <v>-5.156952672530581</v>
+        <v>-29.347958695430652</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.147024462258287</v>
+        <v>-23.321865258704754</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.35540872502187</v>
+        <v>-18.53770033973182</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.73937600633939</v>
+        <v>-14.740646660808011</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.265348606105325</v>
+        <v>-11.728416577481172</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.906405079471956</v>
+        <v>-9.340451928759594</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.6398835788827768</v>
+        <v>-7.449335231229503</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.445330682234396</v>
+        <v>-5.953965233969796</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.3031063066233708</v>
+        <v>-4.7741644925685165</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.194191568083377</v>
+        <v>-3.846473237284531</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.101676106261755</v>
+        <v>-3.1208853305754505</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.0133597768344185</v>
+        <v>-2.558169862609598</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.9236675916939864</v>
+        <v>-2.1273713510405</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.8332699578602056</v>
+        <v>-1.8033254509206749</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.7462888070635613</v>
+        <v>-1.5643543853420354</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.6666139686090539</v>
+        <v>-1.3904019165969097</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5956758066105012</v>
+        <v>-1.2619862081955697</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.5327290228673563</v>
+        <v>-1.1605751181815296</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.476437392123499</v>
+        <v>-1.0706070767297715</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.425894285515517</v>
+        <v>-0.9820869604869971</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.3805639522896703</v>
+        <v>-0.8918155612141923</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.3399657051678225</v>
+        <v>-0.8020869937769185</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.3036239933048842</v>
+        <v>-0.7173340051300509</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.27110632051974737</v>
+        <v>-0.6407050082362222</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.24202291554594665</v>
+        <v>-0.5727240636927177</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.2160209754169976</v>
+        <v>-0.5122543804779138</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.19278189482690672</v>
+        <v>-0.45805810117536355</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.17201839087094306</v>
+        <v>-0.4094002684733105</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.15347175837199778</v>
+        <v>-0.3657878852738691</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.1369092968383161</v>
+        <v>-0.32673726239639356</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.12212191086700304</v>
+        <v>-0.291785804002899</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.2605170240384359</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.232554505542757</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.2075577786070998</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.1852195659546541</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.16526292758117736</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.14743857802440188</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.13152237352780766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.202983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.514466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.906600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.400267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0217579878559895</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8041679192039157</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.789163664217949</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.029199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>7.59031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>9.555637779432349</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>12.029835226427771</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>15.144665266246559</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>19.066003956794273</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>24.00267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>30.217579878559892</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>38.041679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>47.8916366421795</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>60.29199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>75.9031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>95.55637779432348</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>120.2983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>151.4466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>190.6600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>240.0267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>302.17579878559894</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>380.4167919203916</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.916366421795</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.9199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>955.5637779432348</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1202.983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1514.466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1906.600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2400.2676882576447</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3021.7579878559895</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3804.1679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4789.163664217949</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6029.199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>7590.31288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>9555.637779432349</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>12029.835226427771</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>15144.66526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19066.00395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>24002.67688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>30217.579878559893</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>38041.679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>47891.636642179496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>60291.99838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>75903.1288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>95556.37779432347</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1477,458 +1666,521 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.6666650488344743</v>
+        <v>1.6666666188901407</v>
       </c>
       <c r="B1" t="n">
-        <v>1.6666641026542506</v>
+        <v>1.6666665909460447</v>
       </c>
       <c r="C1" t="n">
-        <v>1.6666626031787888</v>
+        <v>1.666666546657741</v>
       </c>
       <c r="D1" t="n">
-        <v>1.6666602269695205</v>
+        <v>1.666666476465771</v>
       </c>
       <c r="E1" t="n">
-        <v>1.66665646168288</v>
+        <v>1.6666663652196514</v>
       </c>
       <c r="F1" t="n">
-        <v>1.6666504959917339</v>
+        <v>1.6666661889080805</v>
       </c>
       <c r="G1" t="n">
-        <v>1.666641045741763</v>
+        <v>1.6666659094772092</v>
       </c>
       <c r="H1" t="n">
-        <v>1.6666260799779695</v>
+        <v>1.6666654666195149</v>
       </c>
       <c r="I1" t="n">
-        <v>1.6666023905990268</v>
+        <v>1.6666647647634696</v>
       </c>
       <c r="J1" t="n">
-        <v>1.6665649199527406</v>
+        <v>1.6666636524621543</v>
       </c>
       <c r="K1" t="n">
-        <v>1.6665057190583543</v>
+        <v>1.666661889748007</v>
       </c>
       <c r="L1" t="n">
-        <v>1.6664123553002865</v>
+        <v>1.666659096447792</v>
       </c>
       <c r="M1" t="n">
-        <v>1.6662655315623331</v>
+        <v>1.6666546704033793</v>
       </c>
       <c r="N1" t="n">
-        <v>1.6660356524194577</v>
+        <v>1.666647658201571</v>
       </c>
       <c r="O1" t="n">
-        <v>1.6656781630237416</v>
+        <v>1.6666365511495234</v>
       </c>
       <c r="P1" t="n">
-        <v>1.6651278594565095</v>
+        <v>1.666618964056439</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.664293210248246</v>
+        <v>1.666591131476093</v>
       </c>
       <c r="R1" t="n">
-        <v>1.663052746724092</v>
+        <v>1.666547122584721</v>
       </c>
       <c r="S1" t="n">
-        <v>1.6612543615603481</v>
+        <v>1.6664776296832127</v>
       </c>
       <c r="T1" t="n">
-        <v>1.658707629073975</v>
+        <v>1.6663681285447784</v>
       </c>
       <c r="U1" t="n">
-        <v>1.655129750666532</v>
+        <v>1.6661961568911619</v>
       </c>
       <c r="V1" t="n">
-        <v>1.64997278700006</v>
+        <v>1.6659274582740893</v>
       </c>
       <c r="W1" t="n">
-        <v>1.6420995701799543</v>
+        <v>1.665510904864219</v>
       </c>
       <c r="X1" t="n">
-        <v>1.629437399413195</v>
+        <v>1.664872635453464</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.6088401054659875</v>
+        <v>1.6639108390532502</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.576241356205145</v>
+        <v>1.6624933143031262</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.5270778798222213</v>
+        <v>1.660456507895965</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.4571766915238138</v>
+        <v>1.6575881121428109</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.364424177403151</v>
+        <v>1.6535401141337494</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.2509824827778746</v>
+        <v>1.6476003521697657</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.1246393795085137</v>
+        <v>1.6383361980033244</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.9972511414033778</v>
+        <v>1.6232980040965266</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.8799422823447824</v>
+        <v>1.5989855306016252</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.7783085561069166</v>
+        <v>1.5610930889939583</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6917125345898287</v>
+        <v>1.5050582829660772</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.6165508416375408</v>
+        <v>1.4271981157556761</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.5497658403779389</v>
+        <v>1.3266504644376949</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.4899629741778553</v>
+        <v>1.2075095800282503</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.4365789152349153</v>
+        <v>1.0793629274493715</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.3890391209581586</v>
+        <v>0.9544582303022163</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.34669436073400206</v>
+        <v>0.8423753520714794</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.3089643582697433</v>
+        <v>0.7463389185862133</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.27534511814501267</v>
+        <v>0.664197747334856</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.245387619895584</v>
+        <v>0.5922381667115044</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.21869199077444204</v>
+        <v>0.527996330034227</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.19490235633264769</v>
+        <v>0.4705039478092315</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.17370186797880513</v>
+        <v>0.4192462700785859</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.15480836982782026</v>
+        <v>0.373603464132433</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.13797055886605736</v>
+        <v>0.33294134314352103</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.12296458166630812</v>
+        <v>0.2967098349397628</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.2644254912297064</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.23565706064498818</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.210020741074798</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.18717489569538806</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.16681533048448718</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.14867114191736489</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>0.1325010369265836</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-400.30426691413595</v>
+        <v>-2329.483044356888</v>
       </c>
       <c r="B2" t="n">
-        <v>-317.9735085612183</v>
+        <v>-1850.3742449845224</v>
       </c>
       <c r="C2" t="n">
-        <v>-252.57599902741174</v>
+        <v>-1469.8046215813633</v>
       </c>
       <c r="D2" t="n">
-        <v>-200.62908244881925</v>
+        <v>-1167.5074539469988</v>
       </c>
       <c r="E2" t="n">
-        <v>-159.36639607629394</v>
+        <v>-927.3843155726195</v>
       </c>
       <c r="F2" t="n">
-        <v>-126.5905513635601</v>
+        <v>-736.6477737261737</v>
       </c>
       <c r="G2" t="n">
-        <v>-100.55611499859562</v>
+        <v>-585.1404120296971</v>
       </c>
       <c r="H2" t="n">
-        <v>-79.87665818379185</v>
+        <v>-464.79391099781895</v>
       </c>
       <c r="I2" t="n">
-        <v>-63.45092418494984</v>
+        <v>-369.19938060357157</v>
       </c>
       <c r="J2" t="n">
-        <v>-50.40418227219394</v>
+        <v>-293.26606351368093</v>
       </c>
       <c r="K2" t="n">
-        <v>-40.041644878924345</v>
+        <v>-232.95023369575875</v>
       </c>
       <c r="L2" t="n">
-        <v>-31.811467163829924</v>
+        <v>-185.03985325902312</v>
       </c>
       <c r="M2" t="n">
-        <v>-25.275358367925026</v>
+        <v>-146.9835197188099</v>
       </c>
       <c r="N2" t="n">
-        <v>-20.085239567806212</v>
+        <v>-116.754594500474</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.964704226855124</v>
+        <v>-92.74327702511327</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.694293601205796</v>
+        <v>-73.67087691885682</v>
       </c>
       <c r="Q2" t="n">
-        <v>-10.099802650508153</v>
+        <v>-58.52171900903824</v>
       </c>
       <c r="R2" t="n">
-        <v>-8.04299565219663</v>
+        <v>-46.48905476252168</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.414244651894093</v>
+        <v>-36.93209968099395</v>
       </c>
       <c r="T2" t="n">
-        <v>-5.126714148124484</v>
+        <v>-29.34190860251298</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.11179307540548</v>
+        <v>-23.31427140025361</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.3154901497246883</v>
+        <v>-18.52818526432052</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.695461775946674</v>
+        <v>-14.72875653675678</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.218364178723428</v>
+        <v>-11.713620959777707</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.8574345739940474</v>
+        <v>-9.322159430462879</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.5903772143041335</v>
+        <v>-7.4269384206429505</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.397523639903077</v>
+        <v>-5.926929623027495</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.2602143622781525</v>
+        <v>-4.742164417287125</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.1597816234578637</v>
+        <v>-3.8095383229106043</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.0780446772631735</v>
+        <v>-3.07946865636929</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.9999521961621303</v>
+        <v>-2.513064172384556</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.9172720973350736</v>
+        <v>-2.079554520390796</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.8301505983185267</v>
+        <v>-1.753970401502769</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.744143827199888</v>
+        <v>-1.5151384460626527</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.6647749802812339</v>
+        <v>-1.3439126877854366</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5942025994557112</v>
+        <v>-1.221691265563365</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.5316756680435616</v>
+        <v>-1.129813605001374</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.47571075715760675</v>
+        <v>-1.0507955667567885</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.42538342613632874</v>
+        <v>-0.9715907418276885</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.38020119230263905</v>
+        <v>-0.8869488146000177</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.33970876536773487</v>
+        <v>-0.7994750862784648</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.303442133465217</v>
+        <v>-0.7153135301102277</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.2709775708677657</v>
+        <v>-0.638978710405449</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.2419317674213668</v>
+        <v>-0.5714015993958482</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.21595644738803982</v>
+        <v>-0.5113301437019144</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.19273621242008476</v>
+        <v>-0.45741769997149495</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.17198605017377264</v>
+        <v>-0.4089473111494004</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.15344886289679552</v>
+        <v>-0.3654664237849794</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.13689308807565692</v>
+        <v>-0.32650970770031684</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.12211043593804437</v>
+        <v>-0.29162472320741856</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.26040298506363335</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.2324737720595939</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.20750062358121119</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.18517910324842043</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.165234282155427</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.14741829860424954</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.13150801679191002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.202983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.514466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.906600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.400267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0217579878559895</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8041679192039157</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.789163664217949</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.029199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>7.59031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>9.555637779432349</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>12.029835226427771</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>15.144665266246559</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>19.066003956794273</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>24.00267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>30.217579878559892</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>38.041679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>47.8916366421795</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>60.29199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>75.9031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>95.55637779432348</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>120.2983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>151.4466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>190.6600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>240.0267688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>302.17579878559894</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>380.4167919203916</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.916366421795</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.9199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>759.031288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>955.5637779432348</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1202.983522642777</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1514.466526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1906.600395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2400.2676882576447</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3021.7579878559895</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3804.1679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4789.163664217949</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6029.199838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>7590.31288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>9555.637779432349</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>12029.835226427771</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>15144.66526624656</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19066.00395679427</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>24002.67688257645</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>30217.579878559893</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>38041.679192039155</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>47891.636642179496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>60291.99838125245</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>75903.1288900115</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>95556.37779432347</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/lin_R1_by_R2 (3 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (3 by 1)1000.xlsx
@@ -416,175 +416,175 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.20672316733446003</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.2602490485639296</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.32763414063238533</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.4124669454134538</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.5192651191061146</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.6537160539010126</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>0.8229797523537903</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>1.0360701236302572</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>1.3043350070388553</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>1.642060485853939</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>2.0672316733446</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>2.6024904856392963</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>3.276341406323853</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>4.124669454134538</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>5.192651191061146</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>6.5371605390101255</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>8.229797523537902</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>10.360701236302571</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>13.043350070388552</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>16.420604858539388</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>20.672316733446003</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>26.02490485639296</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>32.76341406323853</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>41.24669454134538</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>51.92651191061146</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>65.37160539010125</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>82.29797523537903</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>103.60701236302572</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>130.43350070388553</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>164.2060485853939</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>206.72316733446002</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>260.2490485639296</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>327.6341406323853</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>412.4669454134538</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>519.2651191061146</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>653.7160539010126</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>822.9797523537903</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>1036.0701236302573</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>1304.3350070388553</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>1642.0604858539389</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>2067.2316733446</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>2602.4904856392964</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>3276.3414063238533</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>4124.669454134538</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>5192.651191061146</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>6537.160539010126</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>8229.797523537904</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>10360.701236302571</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>13043.350070388553</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>16420.604858539387</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>20672.316733446</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>26024.90485639296</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>32763.41406323853</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>41246.69454134538</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>51926.51191061146</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>65371.60539010126</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>82297.97523537902</v>
       </c>
     </row>
   </sheetData>
@@ -948,175 +948,175 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.20672316733446003</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.2602490485639296</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.32763414063238533</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.4124669454134538</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.5192651191061146</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.6537160539010126</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>0.8229797523537903</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>1.0360701236302572</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>1.3043350070388553</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>1.642060485853939</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>2.0672316733446</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>2.6024904856392963</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>3.276341406323853</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>4.124669454134538</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>5.192651191061146</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>6.5371605390101255</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>8.229797523537902</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>10.360701236302571</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>13.043350070388552</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>16.420604858539388</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>20.672316733446003</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>26.02490485639296</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>32.76341406323853</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>41.24669454134538</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>51.92651191061146</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>65.37160539010125</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>82.29797523537903</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>103.60701236302572</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>130.43350070388553</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>164.2060485853939</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>206.72316733446002</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>260.2490485639296</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>327.6341406323853</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>412.4669454134538</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>519.2651191061146</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>653.7160539010126</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>822.9797523537903</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>1036.0701236302573</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>1304.3350070388553</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>1642.0604858539389</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>2067.2316733446</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>2602.4904856392964</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>3276.3414063238533</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>4124.669454134538</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>5192.651191061146</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>6537.160539010126</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>8229.797523537904</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>10360.701236302571</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>13043.350070388553</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>16420.604858539387</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>20672.316733446</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>26024.90485639296</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>32763.41406323853</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>41246.69454134538</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>51926.51191061146</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>65371.60539010126</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>82297.97523537902</v>
       </c>
     </row>
   </sheetData>
@@ -1480,175 +1480,175 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.20672316733446003</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.2602490485639296</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.32763414063238533</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.4124669454134538</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.5192651191061146</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.6537160539010126</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>0.8229797523537903</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>1.0360701236302572</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>1.3043350070388553</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>1.642060485853939</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>2.0672316733446</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>2.6024904856392963</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>3.276341406323853</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>4.124669454134538</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>5.192651191061146</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>6.5371605390101255</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>8.229797523537902</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>10.360701236302571</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>13.043350070388552</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>16.420604858539388</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>20.672316733446003</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>26.02490485639296</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>32.76341406323853</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>41.24669454134538</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>51.92651191061146</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>65.37160539010125</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>82.29797523537903</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>103.60701236302572</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>130.43350070388553</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>164.2060485853939</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>206.72316733446002</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>260.2490485639296</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>327.6341406323853</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>412.4669454134538</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>519.2651191061146</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>653.7160539010126</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>822.9797523537903</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>1036.0701236302573</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>1304.3350070388553</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>1642.0604858539389</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>2067.2316733446</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>2602.4904856392964</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>3276.3414063238533</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>4124.669454134538</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>5192.651191061146</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>6537.160539010126</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>8229.797523537904</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>10360.701236302571</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>13043.350070388553</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>16420.604858539387</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>20672.316733446</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>26024.90485639296</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>32763.41406323853</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>41246.69454134538</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>51926.51191061146</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>65371.60539010126</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>82297.97523537902</v>
       </c>
     </row>
   </sheetData>
@@ -2012,175 +2012,175 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.20672316733446003</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.2602490485639296</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.32763414063238533</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.4124669454134538</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.5192651191061146</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.6537160539010126</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>0.8229797523537903</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>1.0360701236302572</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>1.3043350070388553</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>1.642060485853939</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>2.0672316733446</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>2.6024904856392963</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>3.276341406323853</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>4.124669454134538</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>5.192651191061146</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>6.5371605390101255</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>8.229797523537902</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>10.360701236302571</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>13.043350070388552</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>16.420604858539388</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>20.672316733446003</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>26.02490485639296</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>32.76341406323853</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>41.24669454134538</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>51.92651191061146</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>65.37160539010125</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>82.29797523537903</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>103.60701236302572</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>130.43350070388553</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>164.2060485853939</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>206.72316733446002</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>260.2490485639296</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>327.6341406323853</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>412.4669454134538</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>519.2651191061146</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>653.7160539010126</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>822.9797523537903</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>1036.0701236302573</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>1304.3350070388553</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>1642.0604858539389</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>2067.2316733446</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>2602.4904856392964</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>3276.3414063238533</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>4124.669454134538</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>5192.651191061146</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>6537.160539010126</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>8229.797523537904</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>10360.701236302571</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>13043.350070388553</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>16420.604858539387</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>20672.316733446</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>26024.90485639296</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>32763.41406323853</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>41246.69454134538</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>51926.51191061146</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>65371.60539010126</v>
       </c>
       <c r="BE3" t="n">
-        <v>#NUM!</v>
+        <v>82297.97523537902</v>
       </c>
     </row>
   </sheetData>
